--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>shipmentType</t>
   </si>
@@ -238,19 +238,34 @@
     <t>TestOrder1</t>
   </si>
   <si>
+    <t>OrderDetails</t>
+  </si>
+  <si>
+    <t>Driver required for loading &amp; unloading</t>
+  </si>
+  <si>
+    <t>90001</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51480986</t>
+  </si>
+  <si>
     <t>TestOrder5</t>
   </si>
   <si>
-    <t>51457284</t>
-  </si>
-  <si>
-    <t>OrderDetails</t>
-  </si>
-  <si>
-    <t>Driver required for loading &amp; unloading</t>
-  </si>
-  <si>
-    <t>51463315</t>
+    <t>51482097</t>
+  </si>
+  <si>
+    <t>51482098</t>
   </si>
 </sst>
 </file>
@@ -297,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -356,6 +371,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <top style="thin"/>
     </border>
     <border>
@@ -366,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -384,8 +410,11 @@
     <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -666,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,15 +719,16 @@
     <col min="14" max="14" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" style="4" width="8.42578125" collapsed="true"/>
     <col min="16" max="16" style="4" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="4" width="9.95703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="4" width="22.7109375" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="4" width="21.7109375" collapsed="true"/>
-    <col min="22" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" style="4" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="18.73828125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="4" width="36.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="4" width="21.7109375" collapsed="true"/>
+    <col min="23" max="16384" style="4" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:24">
+    <row customFormat="1" r="1" s="6" spans="1:25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -708,13 +738,13 @@
       <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -747,30 +777,33 @@
       <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="U1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="10"/>
-    </row>
-    <row customFormat="1" r="2" s="6" spans="1:24">
+      <c r="Y1" s="10"/>
+    </row>
+    <row customFormat="1" r="2" s="6" spans="1:25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -780,14 +813,14 @@
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="5">
-        <v>90001</v>
+      <c r="D2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5">
-        <v>10011</v>
+      <c r="F2" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>35</v>
@@ -816,13 +849,16 @@
       <c r="P2" s="6">
         <v>1</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="10"/>
-    </row>
-    <row customFormat="1" r="3" s="6" spans="1:24">
+      <c r="Q2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="10"/>
+    </row>
+    <row customFormat="1" r="3" s="6" spans="1:25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -832,14 +868,14 @@
       <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="5">
-        <v>90001</v>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="5">
-        <v>10011</v>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>35</v>
@@ -871,13 +907,16 @@
       <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="T3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Q3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
@@ -887,14 +926,14 @@
       <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="5">
-        <v>90001</v>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5">
-        <v>10011</v>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>35</v>
@@ -912,17 +951,20 @@
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -932,14 +974,14 @@
       <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="6">
-        <v>90001</v>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6">
-        <v>10011</v>
+      <c r="F5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>35</v>
@@ -969,29 +1011,32 @@
       <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="Q5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T5" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>222</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5">
         <v>90001</v>
@@ -1045,14 +1090,11 @@
       <c r="S6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="T6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -256,16 +256,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>51480986</t>
-  </si>
-  <si>
     <t>TestOrder5</t>
   </si>
   <si>
-    <t>51482097</t>
-  </si>
-  <si>
-    <t>51482098</t>
+    <t>51482240</t>
+  </si>
+  <si>
+    <t>51482241</t>
+  </si>
+  <si>
+    <t>51482378</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -718,8 +718,7 @@
     <col min="13" max="13" customWidth="true" style="4" width="14.0" collapsed="true"/>
     <col min="14" max="14" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
     <col min="15" max="15" customWidth="true" style="4" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" style="4" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" style="4" width="9.140625" collapsed="true"/>
+    <col min="16" max="17" style="4" width="9.140625" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="4" width="18.73828125" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" style="4" width="19.0" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="4" width="22.7109375" collapsed="true"/>
@@ -942,15 +941,25 @@
         <v>51</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="J4" s="6">
+        <v>70</v>
+      </c>
+      <c r="K4" s="6">
+        <v>11</v>
+      </c>
+      <c r="L4" s="6">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6">
+        <v>13</v>
+      </c>
       <c r="N4" s="11" t="s">
         <v>52</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
       <c r="Q4" s="5" t="s">
         <v>70</v>
       </c>
@@ -1044,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5">
         <v>90001</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>shipmentType</t>
   </si>
@@ -266,6 +266,18 @@
   </si>
   <si>
     <t>51482378</t>
+  </si>
+  <si>
+    <t>51483240</t>
+  </si>
+  <si>
+    <t>51483973</t>
+  </si>
+  <si>
+    <t>51484893</t>
+  </si>
+  <si>
+    <t>51484927</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -413,6 +425,10 @@
     <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
@@ -1023,8 +1039,8 @@
       <c r="Q5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>74</v>
+      <c r="R5" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>55</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>shipmentType</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>51487072</t>
+  </si>
+  <si>
+    <t>51488524</t>
+  </si>
+  <si>
+    <t>51488689</t>
+  </si>
+  <si>
+    <t>51488731</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -443,6 +452,9 @@
     <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1063,8 +1075,8 @@
       <c r="Q5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="27" t="s">
-        <v>84</v>
+      <c r="R5" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>55</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>shipmentType</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>51488731</t>
+  </si>
+  <si>
+    <t>51490120</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -452,6 +455,7 @@
     <xf applyBorder="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
@@ -1075,8 +1079,8 @@
       <c r="Q5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="R5" s="30" t="s">
-        <v>87</v>
+      <c r="R5" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>55</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DC1CB-2817-40F2-BB0C-BBD28DB5FFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B04DC1CB-2817-40F2-BB0C-BBD28DB5FFDF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="ShipmentInformation" sheetId="4" r:id="rId2"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
+    <sheet name="ShipmentInformation" r:id="rId2" sheetId="4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>shipmentType</t>
   </si>
@@ -278,12 +278,16 @@
   </si>
   <si>
     <t>Test Pallet Description</t>
+  </si>
+  <si>
+    <t>51495348</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +328,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -383,33 +397,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,10 +448,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -593,21 +615,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -624,7 +646,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -676,14 +698,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
@@ -692,34 +714,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="36.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="9.140625" style="1" collapsed="1"/>
-    <col min="27" max="27" width="9.140625" style="1"/>
-    <col min="28" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" style="1" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
+    <col min="16" max="17" style="1" width="9.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="18.73828125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="18.7109375" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="21.7109375" collapsed="true"/>
+    <col min="24" max="26" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" style="1" width="9.140625" collapsed="false"/>
+    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -797,7 +819,7 @@
       </c>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -853,7 +875,7 @@
       </c>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1021,8 +1043,8 @@
       <c r="Q5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>44</v>
+      <c r="R5" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>22</v>
@@ -1108,14 +1130,14 @@
       <c r="W6" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B3168-F371-4323-A6A8-884AB7A88E62}">
-  <dimension ref="A1:T2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9B3168-F371-4323-A6A8-884AB7A88E62}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1123,8 +1145,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1253,8 +1275,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{C732AF92-29C7-42E3-94BD-6AF1C768918C}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{C732AF92-29C7-42E3-94BD-6AF1C768918C}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>shipmentType</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>51498332</t>
+  </si>
+  <si>
+    <t>51498485</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +582,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -755,12 +778,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -792,7 +829,9 @@
     <xf applyBorder="true" applyFill="true" borderId="26" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="28" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="30" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1479,8 +1518,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="31" t="s">
-        <v>119</v>
+      <c r="U5" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
   <si>
     <t>shipmentType</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>51498485</t>
+  </si>
+  <si>
+    <t>51499130</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,8 +605,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -792,12 +815,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -831,7 +868,9 @@
     <xf applyBorder="true" applyFill="true" borderId="30" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="32" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="34" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1518,8 +1557,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="33" t="s">
-        <v>120</v>
+      <c r="U5" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t>shipmentType</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>51499130</t>
+  </si>
+  <si>
+    <t>51499630</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +628,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -829,12 +852,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -870,7 +907,9 @@
     <xf applyBorder="true" applyFill="true" borderId="34" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="36" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="40" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1557,8 +1596,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="35" t="s">
-        <v>121</v>
+      <c r="U5" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t>shipmentType</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>51499630</t>
+  </si>
+  <si>
+    <t>51499699</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +651,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -866,12 +889,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -909,7 +946,9 @@
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="42" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="48" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1596,8 +1635,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="37" t="s">
-        <v>122</v>
+      <c r="U5" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>shipmentType</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>51499699</t>
+  </si>
+  <si>
+    <t>51500912</t>
+  </si>
+  <si>
+    <t>51501021</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,8 +677,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -903,12 +949,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -948,7 +1022,11 @@
     <xf applyBorder="true" applyFill="true" borderId="42" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="44" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="46" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="48" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="56" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1635,8 +1713,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="39" t="s">
-        <v>123</v>
+      <c r="U5" s="43" t="s">
+        <v>125</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
   <si>
     <t>shipmentType</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>51501021</t>
+  </si>
+  <si>
+    <t>51502033</t>
+  </si>
+  <si>
+    <t>51502092</t>
+  </si>
+  <si>
+    <t>51502239</t>
+  </si>
+  <si>
+    <t>51503453</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +729,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -977,12 +1069,68 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1026,7 +1174,15 @@
     <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="54" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="56" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1713,8 +1869,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="43" t="s">
-        <v>125</v>
+      <c r="U5" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t>shipmentType</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>51503453</t>
+  </si>
+  <si>
+    <t>51522016</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="72">
+  <fills count="76">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,8 +812,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -1125,12 +1148,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1182,7 +1219,9 @@
     <xf applyBorder="true" applyFill="true" borderId="66" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="68" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="70" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="76" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1869,8 +1908,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="51" t="s">
-        <v>129</v>
+      <c r="U5" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AF4C1F5A-BEAA-4996-8FFE-AA4382B19077}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D9AC2AAD-8801-4015-9D6D-2D27FC78B36D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
     <workbookView tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>shipmentType</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Fulfillment Carrier Id1</t>
   </si>
   <si>
-    <t>51496908</t>
-  </si>
-  <si>
     <t>updatedShipmentInformation</t>
   </si>
   <si>
@@ -367,58 +364,16 @@
     <t>Test4321</t>
   </si>
   <si>
-    <t>51497042</t>
-  </si>
-  <si>
-    <t>51497331</t>
-  </si>
-  <si>
-    <t>51497426</t>
-  </si>
-  <si>
-    <t>51497550</t>
-  </si>
-  <si>
-    <t>51497604</t>
-  </si>
-  <si>
-    <t>51497833</t>
-  </si>
-  <si>
-    <t>51498332</t>
-  </si>
-  <si>
-    <t>51498485</t>
-  </si>
-  <si>
-    <t>51499130</t>
-  </si>
-  <si>
-    <t>51499630</t>
-  </si>
-  <si>
-    <t>51499699</t>
-  </si>
-  <si>
-    <t>51500912</t>
-  </si>
-  <si>
-    <t>51501021</t>
-  </si>
-  <si>
-    <t>51502033</t>
-  </si>
-  <si>
-    <t>51502092</t>
-  </si>
-  <si>
-    <t>51502239</t>
-  </si>
-  <si>
-    <t>51503453</t>
-  </si>
-  <si>
-    <t>51522016</t>
+    <t>51522196</t>
+  </si>
+  <si>
+    <t>51522216</t>
+  </si>
+  <si>
+    <t>51522219</t>
+  </si>
+  <si>
+    <t>51522229</t>
   </si>
 </sst>
 </file>
@@ -455,7 +410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="76">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,308 +487,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="77">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -952,222 +607,12 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1186,42 +631,12 @@
     <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="5" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="12" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="14" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="28" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="30" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="32" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="34" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="36" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="38" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="40" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="42" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="44" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="46" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="48" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="50" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="52" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="54" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="56" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="58" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="60" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="62" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="64" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="66" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="68" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="70" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="72" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="74" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="76" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1505,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,9 +946,7 @@
     <col min="18" max="18" customWidth="true" style="1" width="8.42578125" collapsed="true"/>
     <col min="19" max="20" style="1" width="9.140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="18.73828125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
     <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="36.5703125" collapsed="true"/>
@@ -1651,10 +1064,10 @@
         <v>108</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="AK1" s="5"/>
     </row>
@@ -1908,8 +1321,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="53" t="s">
-        <v>130</v>
+      <c r="U5" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>
@@ -1947,10 +1360,10 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>shipmentType</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>51522229</t>
+  </si>
+  <si>
+    <t>51522844</t>
+  </si>
+  <si>
+    <t>51522846</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +493,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -607,12 +643,33 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -636,7 +693,10 @@
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="12" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="14" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1321,8 +1381,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="23" t="s">
-        <v>115</v>
+      <c r="U5" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
   <si>
     <t>shipmentType</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>51522846</t>
+  </si>
+  <si>
+    <t>51524259</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +526,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -664,12 +677,19 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -696,7 +716,8 @@
     <xf applyBorder="true" applyFill="true" borderId="16" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="20" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1381,8 +1402,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="26" t="s">
-        <v>117</v>
+      <c r="U5" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
   <si>
     <t>shipmentType</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>51524259</t>
+  </si>
+  <si>
+    <t>51524445</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,8 +539,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -684,12 +707,26 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -717,7 +754,9 @@
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="20" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="22" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="24" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1402,8 +1441,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="27" t="s">
-        <v>118</v>
+      <c r="U5" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>

--- a/binaries/FCfiles/QA_537.xlsx
+++ b/binaries/FCfiles/QA_537.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>shipmentType</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>51524445</t>
+  </si>
+  <si>
+    <t>51524920</t>
+  </si>
+  <si>
+    <t>58471418</t>
+  </si>
+  <si>
+    <t>51525303</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +568,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -721,12 +770,40 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -756,7 +833,11 @@
     <xf applyBorder="true" applyFill="true" borderId="22" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="24" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="26" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1441,8 +1522,8 @@
       <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="29" t="s">
-        <v>119</v>
+      <c r="U5" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>99</v>
